--- a/_cacao_analysis/Data/MCA_cos2_variables2explain.xlsx
+++ b/_cacao_analysis/Data/MCA_cos2_variables2explain.xlsx
@@ -317,7 +317,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -799,7 +799,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1127,7 +1127,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
